--- a/data/precios.xlsx
+++ b/data/precios.xlsx
@@ -118,16 +118,16 @@
     <t>4. Conteo de Personas</t>
   </si>
   <si>
-    <t>Cálculo Agregado: Uso medio de GPU. Algoritmos de tracking (DeepSort) requieren continuidad.</t>
+    <t>Cálculo Agregado: Uso medio de GPU. Algoritmos de tracking (DeepSort).</t>
   </si>
   <si>
     <t>Bajo consumo. Solo almacena snapshots estadísticos y metadatos JSON.</t>
   </si>
   <si>
-    <t>Almacenamiento denso de series de tiempo para heatmaps y reportes de afluencia.</t>
-  </si>
-  <si>
-    <t>Dashboards de BI personalizados y calibración de zonas de conteo.</t>
+    <t>Almacenamiento denso de series de tiempo para heatmaps.</t>
+  </si>
+  <si>
+    <t>Dashboards de BI personalizados y calibración de zonas.</t>
   </si>
   <si>
     <t>Cerca Virtual/Objetos: (Equivalente funcional básico) 35 días grabación.</t>
@@ -136,10 +136,10 @@
     <t>5. Objetos Abandonados</t>
   </si>
   <si>
-    <t>Cálculo Agregado: Análisis temporal. Requiere comparar frames previos (memoria) para detectar estática.</t>
-  </si>
-  <si>
-    <t>Clips de evidencia de duración media (antes/durante/después del evento).</t>
+    <t>Análisis temporal. Requiere comparar frames previos (memoria).</t>
+  </si>
+  <si>
+    <t>Clips de evidencia de duración media (antes/durante/después).</t>
   </si>
   <si>
     <t>Registro de incidentes y tiempos de respuesta.</t>
@@ -158,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -166,9 +166,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,17 +194,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -439,19 +455,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>13500.0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="E2" s="4">
         <v>0.29</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -459,16 +475,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>2000.0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.04</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -476,16 +493,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.01</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -493,16 +511,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
-        <v>30000.0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.66</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -510,39 +529,47 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>6.0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
-        <v>23000.0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.3</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -550,16 +577,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
-        <v>6000.0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.08</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -567,16 +595,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.01</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -584,16 +613,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <v>46000.0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.61</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -601,39 +631,47 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>20.0</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2">
-        <v>40000.0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.28</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -641,16 +679,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2">
-        <v>8000.0</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.06</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -658,16 +697,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2">
-        <v>12000.0</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="4">
         <v>0.09</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -675,16 +715,17 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2">
-        <v>82000.0</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.57</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -692,39 +733,47 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>10.0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2">
-        <v>15500.0</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="E20" s="4">
         <v>0.31</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -732,16 +781,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2">
-        <v>1500.0</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E21" s="4">
         <v>0.03</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -749,16 +799,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2">
-        <v>2000.0</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.04</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -766,16 +817,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2">
-        <v>31000.0</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.62</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -783,39 +835,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>6.0</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2">
-        <v>18000.0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E26" s="4">
         <v>0.33</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -823,16 +883,17 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="4">
         <v>0.05</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -840,16 +901,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="2">
-        <v>800.0</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="4">
         <v>0.01</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -857,16 +919,17 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="2">
-        <v>33200.0</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="3">
+        <v>8.3</v>
+      </c>
+      <c r="E29" s="4">
         <v>0.61</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -874,22 +937,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>6.0</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>45</v>
       </c>
     </row>
